--- a/ReadMe.xlsx
+++ b/ReadMe.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\my_program\kyo-pro\80_AutoPlot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E468EE9-6E90-4567-ABBB-AA3EC0516A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720880FD-A15E-4D6F-86BF-D730F3AC7B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-660" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="備忘録" sheetId="3" r:id="rId2"/>
+    <sheet name="デザイン" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>フォルダ構成</t>
     <rPh sb="4" eb="6">
@@ -162,6 +164,29 @@
   </si>
   <si>
     <t>MainViewModel 表示用に参照</t>
+  </si>
+  <si>
+    <t>見た目はここまで</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフの数値自体は読めてるっぽい</t>
+    <rPh sb="4" eb="6">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -232,12 +257,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -253,6 +279,432 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1112337</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>277989</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>58198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC07FA3-DDE5-7B42-A4C6-E1BDCEE7CB53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1772737" y="558800"/>
+          <a:ext cx="4931452" cy="2928398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C6F813-83FD-14B1-E3CE-8EB464F5EFDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="1073150"/>
+          <a:ext cx="4851400" cy="2921000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14181FC3-FB4B-46AD-BD86-78AEE0D248CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="1225550"/>
+          <a:ext cx="1803400" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>画像パス入力エリア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D224F8-D6B8-49BD-81E0-F3E24CFC1C23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1974850" y="1758950"/>
+          <a:ext cx="2057400" cy="1949450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力された画像を表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFEA4240-4C51-442D-9C3D-022003EEA05C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="1771650"/>
+          <a:ext cx="2057400" cy="1949450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>読み取った数値をグラフ化した画像を表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9249EC5B-CB9B-44F1-ADB5-43E8A024F496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4083050" y="1225550"/>
+          <a:ext cx="1181100" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パス決定ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,13 +972,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView showGridLines="0" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -1188,4 +1640,55 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D72983-064B-463F-9A5B-81F9920F7E92}">
+  <dimension ref="B2:C18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="5">
+        <v>46018</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F838AA-6B65-4D16-B1B0-EFB7DFB1F921}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ReadMe.xlsx
+++ b/ReadMe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\my_program\kyo-pro\80_AutoPlot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720880FD-A15E-4D6F-86BF-D730F3AC7B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B15515-D25F-4526-B74A-79975E72B1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-660" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>フォルダ構成</t>
     <rPh sb="4" eb="6">
@@ -185,6 +185,196 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現状のアプリの課題</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右下の測定環境の補足の文字が書いてあると、グラフの数値として扱ってしまう</t>
+    <rPh sb="0" eb="2">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X軸、Y軸のラベルも同様に文字として扱ってしまう</t>
+    <rPh sb="1" eb="2">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数の系列の読み取りができない</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→左側の原型列に消しゴムマジック機能を追加して削除する</t>
+    <rPh sb="1" eb="3">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンケイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→X軸、Y軸のグリッド抽出はできるので、そこで描画する領域を選択する</t>
+    <rPh sb="2" eb="3">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→消しゴムマジックの逆版、ペンで描画する機能を加えて、そのペンの領域のグラフを抽出するようにする</t>
+    <rPh sb="1" eb="2">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→原型列に対して描画で足した線のデータはあるので、それを最後に重ねてデータにすれば問題ない</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落書きできるようになった！</t>
+    <rPh sb="0" eb="2">
+      <t>ラクガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -193,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +420,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -257,13 +456,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -319,6 +521,226 @@
         <a:xfrm>
           <a:off x="1772737" y="558800"/>
           <a:ext cx="4931452" cy="2928398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>90424</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>408176</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387CA0F2-EA40-0BFC-1974-8279A89328B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1893824" y="4914900"/>
+          <a:ext cx="5600952" cy="3773096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216646</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>573831</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>87106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3CF34F-5094-60F6-F240-E4D0BA846111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2017058" y="9032388"/>
+          <a:ext cx="5616479" cy="3792071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219365</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>140735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>404091</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>105297</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25121414-A1BB-4FC9-9717-6C08E2EC1643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2020456" y="13302553"/>
+          <a:ext cx="6107544" cy="4120926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>565877</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>25140</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>119827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D54191E-5F9E-F7C9-2746-BC740A8D0D32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10922150" y="18068636"/>
+          <a:ext cx="6698263" cy="5142100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>34635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209373</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>185896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47BD9A8-6DA0-01AD-64E9-98A1BDA7E74C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3290455" y="24510999"/>
+          <a:ext cx="8591373" cy="5693079"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1644,10 +2066,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D72983-064B-463F-9A5B-81F9920F7E92}">
-  <dimension ref="B2:C18"/>
+  <dimension ref="B2:E104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A86" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1660,14 +2082,76 @@
         <v>46018</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="2:3">
       <c r="C17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="2:3">
       <c r="C18" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="6">
+        <v>46020</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5">
+      <c r="C79" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5">
+      <c r="D80" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5">
+      <c r="E81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5">
+      <c r="D82" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5">
+      <c r="E83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5">
+      <c r="D84" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5">
+      <c r="E85" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5">
+      <c r="E86" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" s="8">
+        <v>46020</v>
+      </c>
+      <c r="C104" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/ReadMe.xlsx
+++ b/ReadMe.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\my_program\kyo-pro\80_AutoPlot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B15515-D25F-4526-B74A-79975E72B1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20854732-1A58-40FC-A9B1-5981B924611D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-660" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-660" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="備忘録" sheetId="3" r:id="rId2"/>
-    <sheet name="デザイン" sheetId="2" r:id="rId3"/>
+    <sheet name="画面遷移図" sheetId="4" r:id="rId3"/>
+    <sheet name="デザイン" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>フォルダ構成</t>
     <rPh sb="4" eb="6">
@@ -375,6 +376,121 @@
     <t>落書きできるようになった！</t>
     <rPh sb="0" eb="2">
       <t>ラクガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース想定</t>
+    <rPh sb="6" eb="8">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UIが立ち上がる</t>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス入力</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原図データが描画される</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンズ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原図データ上で消したいノイズなどを消しゴムまじっくで消す</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンズ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消しゴムマジックで消した領域</t>
+    <rPh sb="0" eb="1">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｘ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動読み取りされたデータが右側に出てくる</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノイズ除去完了 &amp; プロットしたいグラフ選択完了→決定ボタンを押す</t>
+    <rPh sb="3" eb="5">
+      <t>ジョキョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -456,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -466,6 +582,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -753,6 +870,715 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC635F6-377A-49DF-B989-D38977B580DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1555750" y="571500"/>
+          <a:ext cx="3727450" cy="2484043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>210419</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571578</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{620A56B5-0F40-4B1E-B533-80DBBEF2E47F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1531219" y="3575050"/>
+          <a:ext cx="3663159" cy="2406670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133021</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>145074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7315BBF7-8934-47CD-8AD7-2C045D70C575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1453821" y="6812574"/>
+          <a:ext cx="3829379" cy="2521926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>380979</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>31518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDB3EA5-5BE1-448C-800B-6107A5D53694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1701779" y="9715500"/>
+          <a:ext cx="3581421" cy="2317518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>374671</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>158518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFF9FE6-F4C4-4ECD-BD96-2FA235414D09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1416050" y="18034000"/>
+          <a:ext cx="3581421" cy="2317518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089F69AA-173D-386A-3DDC-78748E587CFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010150" y="18161000"/>
+          <a:ext cx="1041400" cy="2082800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ｘ、ｙ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>..,...,</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>635001</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>221901</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>83183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9C1B1C-CAF4-6884-3311-0B896772CF71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276601" y="14382750"/>
+          <a:ext cx="1568100" cy="1130933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>273071</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>88668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77AC164-6C26-4CA2-84DF-13D95236C8F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1974850" y="13582650"/>
+          <a:ext cx="3581421" cy="2317518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07B8F0B-0770-45A3-A66D-C2796133FCDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5568950" y="13709650"/>
+          <a:ext cx="1041400" cy="2082800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ｘ、ｙ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>..,...,</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054E7ADA-056A-4B4C-B9C3-422E07EF2DF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="13627100"/>
+          <a:ext cx="762000" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>画像取り込み</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3515C4F8-F111-4B21-A318-2A6844657ACB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="14046200"/>
+          <a:ext cx="762000" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>軸</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B42D98-82F6-408B-9460-1FB13113B41B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="14439900"/>
+          <a:ext cx="762000" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>ノイズ除去＆系列選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E29C23-1A02-48A0-BA7F-CED54DD64D0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="14998700"/>
+          <a:ext cx="762000" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>データ取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2066,10 +2892,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D72983-064B-463F-9A5B-81F9920F7E92}">
-  <dimension ref="B2:E104"/>
+  <dimension ref="B2:E134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A86" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView showGridLines="0" topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2154,6 +2980,14 @@
         <v>54</v>
       </c>
     </row>
+    <row r="134" spans="2:3">
+      <c r="B134" s="9">
+        <v>46022</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2162,6 +2996,82 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B8617E-69E1-4967-8573-A8820EBBE283}">
+  <dimension ref="B3:C93"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="1">
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F838AA-6B65-4D16-B1B0-EFB7DFB1F921}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/ReadMe.xlsx
+++ b/ReadMe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\my_program\kyo-pro\80_AutoPlot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20854732-1A58-40FC-A9B1-5981B924611D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9C0919-2BC6-45FD-BDF1-D60104ED73C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-660" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-660" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2999,8 +2999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B8617E-69E1-4967-8573-A8820EBBE283}">
   <dimension ref="B3:C93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView showGridLines="0" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3075,7 +3075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F838AA-6B65-4D16-B1B0-EFB7DFB1F921}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
